--- a/Code/Results/Cases/Case_8_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.472681898166627</v>
+        <v>3.475591708479328</v>
       </c>
       <c r="C2">
-        <v>1.600805135109908</v>
+        <v>1.804068473023108</v>
       </c>
       <c r="D2">
-        <v>0.06332960451682368</v>
+        <v>0.03167535944383815</v>
       </c>
       <c r="E2">
-        <v>1.346849729716084</v>
+        <v>1.348133219353159</v>
       </c>
       <c r="F2">
-        <v>2.656833625933587</v>
+        <v>1.898639789476249</v>
       </c>
       <c r="G2">
-        <v>0.0007909084095647508</v>
+        <v>0.0004258694577833205</v>
       </c>
       <c r="H2">
-        <v>0.01039219167517551</v>
+        <v>0.01053166562517294</v>
       </c>
       <c r="I2">
-        <v>0.004123351914542717</v>
+        <v>0.004506482551284385</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.339107588832775</v>
+        <v>0.809512989205281</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3722940315397238</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.250303318962608</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.015428565812442</v>
+        <v>3.025546927622543</v>
       </c>
       <c r="C3">
-        <v>1.384825548268566</v>
+        <v>1.561577584628935</v>
       </c>
       <c r="D3">
-        <v>0.05919049806914956</v>
+        <v>0.03057003495343658</v>
       </c>
       <c r="E3">
-        <v>1.162497204045835</v>
+        <v>1.169644245144269</v>
       </c>
       <c r="F3">
-        <v>2.356369039075588</v>
+        <v>1.704036669734592</v>
       </c>
       <c r="G3">
-        <v>0.0007974853296808766</v>
+        <v>3.392082681602515E-05</v>
       </c>
       <c r="H3">
-        <v>0.006292267753894465</v>
+        <v>0.006976229698664071</v>
       </c>
       <c r="I3">
-        <v>0.001626070753053543</v>
+        <v>0.002477738080637337</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.211946570967768</v>
+        <v>0.7523987487199477</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.361459323106601</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2183586008759519</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.735826209208085</v>
+        <v>2.749307853498635</v>
       </c>
       <c r="C4">
-        <v>1.25394254300295</v>
+        <v>1.413943130488292</v>
       </c>
       <c r="D4">
-        <v>0.05657765524260583</v>
+        <v>0.02982147800480384</v>
       </c>
       <c r="E4">
-        <v>1.05057431134577</v>
+        <v>1.060705957167798</v>
       </c>
       <c r="F4">
-        <v>2.173227276340526</v>
+        <v>1.584365561304651</v>
       </c>
       <c r="G4">
-        <v>0.0008016300888060606</v>
+        <v>0.0005062312334629115</v>
       </c>
       <c r="H4">
-        <v>0.004232528854651418</v>
+        <v>0.005103014410041018</v>
       </c>
       <c r="I4">
-        <v>0.0007684031443635497</v>
+        <v>0.001585046551122904</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.134067227501845</v>
+        <v>0.7168826956060386</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.354255574790777</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1995173913070047</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.622055810585152</v>
+        <v>2.636682424437822</v>
       </c>
       <c r="C5">
-        <v>1.202067458007207</v>
+        <v>1.355005809397881</v>
       </c>
       <c r="D5">
-        <v>0.05527306443125823</v>
+        <v>0.0294055553201602</v>
       </c>
       <c r="E5">
-        <v>1.005197334055794</v>
+        <v>1.016419855362031</v>
       </c>
       <c r="F5">
-        <v>2.09429650728633</v>
+        <v>1.532362818995296</v>
       </c>
       <c r="G5">
-        <v>0.0008033591179076316</v>
+        <v>0.0008673699426161464</v>
       </c>
       <c r="H5">
-        <v>0.003495296089398137</v>
+        <v>0.004408923903232109</v>
       </c>
       <c r="I5">
-        <v>0.0006358684185276964</v>
+        <v>0.001374485255303703</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.099057839206296</v>
+        <v>0.7002296524201697</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3503180975299429</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1913426452937799</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.603112688225565</v>
+        <v>2.617926112536622</v>
       </c>
       <c r="C6">
-        <v>1.194805285255427</v>
+        <v>1.346398173313446</v>
       </c>
       <c r="D6">
-        <v>0.05478609993702932</v>
+        <v>0.02922223014031466</v>
       </c>
       <c r="E6">
-        <v>0.9976336342318035</v>
+        <v>1.009042195387181</v>
       </c>
       <c r="F6">
-        <v>2.075638366710336</v>
+        <v>1.519871045786203</v>
       </c>
       <c r="G6">
-        <v>0.0008036627835595738</v>
+        <v>0.0009404441809834352</v>
       </c>
       <c r="H6">
-        <v>0.003375564721968649</v>
+        <v>0.004295236499354704</v>
       </c>
       <c r="I6">
-        <v>0.0007060594503212059</v>
+        <v>0.001440974952920726</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.08923049216169</v>
+        <v>0.6949489421853556</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3486053838548955</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1891630088978147</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.734108264051201</v>
+        <v>2.74737270482774</v>
       </c>
       <c r="C7">
-        <v>1.256883466971146</v>
+        <v>1.408500048522683</v>
       </c>
       <c r="D7">
-        <v>0.05582063819118588</v>
+        <v>0.02896933068858587</v>
       </c>
       <c r="E7">
-        <v>1.049837274733008</v>
+        <v>1.059794522537402</v>
       </c>
       <c r="F7">
-        <v>2.156907048463523</v>
+        <v>1.553781328794997</v>
       </c>
       <c r="G7">
-        <v>0.0008016934800100415</v>
+        <v>0.0007113838029648711</v>
       </c>
       <c r="H7">
-        <v>0.004211775236488968</v>
+        <v>0.005065852987128139</v>
       </c>
       <c r="I7">
-        <v>0.000973428154386724</v>
+        <v>0.001808910157895305</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.122589030821956</v>
+        <v>0.6995734067315027</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3471287470189282</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1936410295097559</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.314447383818447</v>
+        <v>3.319151540543373</v>
       </c>
       <c r="C8">
-        <v>1.530794645152298</v>
+        <v>1.697937784904013</v>
       </c>
       <c r="D8">
-        <v>0.06092471299349711</v>
+        <v>0.02922517234147826</v>
       </c>
       <c r="E8">
-        <v>1.282802244517896</v>
+        <v>1.285489715569</v>
       </c>
       <c r="F8">
-        <v>2.532495471703697</v>
+        <v>1.75342227528796</v>
       </c>
       <c r="G8">
-        <v>0.00079320621790871</v>
+        <v>0.001359613341281651</v>
       </c>
       <c r="H8">
-        <v>0.008857754850471161</v>
+        <v>0.009138370220670905</v>
       </c>
       <c r="I8">
-        <v>0.003336655095547592</v>
+        <v>0.003914106243357196</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.280480481530404</v>
+        <v>0.7472790108351006</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3517583670191939</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2239809240702897</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.465500251983258</v>
+        <v>4.444038796893778</v>
       </c>
       <c r="C9">
-        <v>2.078054569952656</v>
+        <v>2.299827957244759</v>
       </c>
       <c r="D9">
-        <v>0.07175879613828329</v>
+        <v>0.03153051370835236</v>
       </c>
       <c r="E9">
-        <v>1.75250921757339</v>
+        <v>1.735743481049369</v>
       </c>
       <c r="F9">
-        <v>3.311567513727965</v>
+        <v>2.233475512874747</v>
       </c>
       <c r="G9">
-        <v>0.0007772874934398891</v>
+        <v>0.006698582127259378</v>
       </c>
       <c r="H9">
-        <v>0.02212611910694662</v>
+        <v>0.0199729351184359</v>
       </c>
       <c r="I9">
-        <v>0.0138031532850027</v>
+        <v>0.01088385600291897</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.613428668542923</v>
+        <v>0.8865641213219959</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3765402564867912</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3066483715551129</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.321082198498402</v>
+        <v>5.27034938740519</v>
       </c>
       <c r="C10">
-        <v>2.477973423510605</v>
+        <v>2.681118902961146</v>
       </c>
       <c r="D10">
-        <v>0.07514642250687587</v>
+        <v>0.02932607796271469</v>
       </c>
       <c r="E10">
-        <v>2.004094194487138</v>
+        <v>1.967789032324617</v>
       </c>
       <c r="F10">
-        <v>3.806149050567171</v>
+        <v>2.418874608266293</v>
       </c>
       <c r="G10">
-        <v>0.0007664238221103726</v>
+        <v>0.02100699491306735</v>
       </c>
       <c r="H10">
-        <v>0.03409697906970921</v>
+        <v>0.02897478971640277</v>
       </c>
       <c r="I10">
-        <v>0.02591035934850972</v>
+        <v>0.01790193452276334</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.804892368958662</v>
+        <v>0.9009333060991835</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3611896412190205</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3374648755981937</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.688048105203848</v>
+        <v>5.628695901019057</v>
       </c>
       <c r="C11">
-        <v>2.506887374527878</v>
+        <v>2.576575787487798</v>
       </c>
       <c r="D11">
-        <v>0.04730428481678928</v>
+        <v>0.02474482029798253</v>
       </c>
       <c r="E11">
-        <v>1.308782919153643</v>
+        <v>1.274660337856858</v>
       </c>
       <c r="F11">
-        <v>3.296691604542417</v>
+        <v>1.888624207570658</v>
       </c>
       <c r="G11">
-        <v>0.0007648913547952644</v>
+        <v>0.05427864556460804</v>
       </c>
       <c r="H11">
-        <v>0.04929458339420023</v>
+        <v>0.04386745796472269</v>
       </c>
       <c r="I11">
-        <v>0.02845697980959905</v>
+        <v>0.01915413286484391</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.448635483716529</v>
+        <v>0.6102290642062655</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2502784909602411</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2315111548739495</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.818201556789347</v>
+        <v>5.759342106838346</v>
       </c>
       <c r="C12">
-        <v>2.441098387340503</v>
+        <v>2.436363162481427</v>
       </c>
       <c r="D12">
-        <v>0.03189640577105024</v>
+        <v>0.03085535872801515</v>
       </c>
       <c r="E12">
-        <v>0.8036247946326824</v>
+        <v>0.7755407297603796</v>
       </c>
       <c r="F12">
-        <v>2.822502280593397</v>
+        <v>1.524791591575109</v>
       </c>
       <c r="G12">
-        <v>0.0007654588869596113</v>
+        <v>0.07756246404693456</v>
       </c>
       <c r="H12">
-        <v>0.08431466237333041</v>
+        <v>0.07929837120302352</v>
       </c>
       <c r="I12">
-        <v>0.02779815016072096</v>
+        <v>0.01868235686107589</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.158976293862111</v>
+        <v>0.4382260574488299</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1882624315311077</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.16463526831037</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.772240570340955</v>
+        <v>5.721275048950645</v>
       </c>
       <c r="C13">
-        <v>2.305642264696019</v>
+        <v>2.283393142632235</v>
       </c>
       <c r="D13">
-        <v>0.0239085098211369</v>
+        <v>0.03936691810848458</v>
       </c>
       <c r="E13">
-        <v>0.4173160481271765</v>
+        <v>0.3970697303149748</v>
       </c>
       <c r="F13">
-        <v>2.326914780101262</v>
+        <v>1.26527661935927</v>
       </c>
       <c r="G13">
-        <v>0.0007677171651313733</v>
+        <v>0.07020739776346119</v>
       </c>
       <c r="H13">
-        <v>0.1359595842463506</v>
+        <v>0.1318602377914857</v>
       </c>
       <c r="I13">
-        <v>0.024928883665436</v>
+        <v>0.01726262096251663</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8876316802533779</v>
+        <v>0.3333291439557655</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1527513800569018</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1206408815576836</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.661068234796232</v>
+        <v>5.618234972934147</v>
       </c>
       <c r="C14">
-        <v>2.182032891055087</v>
+        <v>2.17007505765423</v>
       </c>
       <c r="D14">
-        <v>0.02258484828135909</v>
+        <v>0.04512755136457258</v>
       </c>
       <c r="E14">
-        <v>0.2201716104455116</v>
+        <v>0.2052671839425457</v>
       </c>
       <c r="F14">
-        <v>1.975352956158574</v>
+        <v>1.119520581292349</v>
       </c>
       <c r="G14">
-        <v>0.0007700197583137564</v>
+        <v>0.05238132208076607</v>
       </c>
       <c r="H14">
-        <v>0.1824466953788999</v>
+        <v>0.1791159865112206</v>
       </c>
       <c r="I14">
-        <v>0.02219632019979567</v>
+        <v>0.01596737518673663</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7098480045748374</v>
+        <v>0.2823862494149161</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.136519916471606</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0976739149742798</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.596322957816142</v>
+        <v>5.556872898209974</v>
       </c>
       <c r="C15">
-        <v>2.138774289249341</v>
+        <v>2.138561859420918</v>
       </c>
       <c r="D15">
-        <v>0.02288009718437323</v>
+        <v>0.0457397056295008</v>
       </c>
       <c r="E15">
-        <v>0.1808263633712102</v>
+        <v>0.1675183837106253</v>
       </c>
       <c r="F15">
-        <v>1.877349316880924</v>
+        <v>1.09284802165682</v>
       </c>
       <c r="G15">
-        <v>0.0007709963802093174</v>
+        <v>0.04354934544268119</v>
       </c>
       <c r="H15">
-        <v>0.1939692103344299</v>
+        <v>0.1909293681400612</v>
       </c>
       <c r="I15">
-        <v>0.02116395407378668</v>
+        <v>0.01553714975654596</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6640578938330322</v>
+        <v>0.2754423491720921</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1348093490694851</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.09371898716045735</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.237282305643816</v>
+        <v>5.211107402608775</v>
       </c>
       <c r="C16">
-        <v>2.001415894172226</v>
+        <v>2.079827201304624</v>
       </c>
       <c r="D16">
-        <v>0.02339209275693577</v>
+        <v>0.0372854113929364</v>
       </c>
       <c r="E16">
-        <v>0.1719094334212663</v>
+        <v>0.162767872923947</v>
       </c>
       <c r="F16">
-        <v>1.775367489262976</v>
+        <v>1.178375431222022</v>
       </c>
       <c r="G16">
-        <v>0.0007751093436637721</v>
+        <v>0.0140126721827869</v>
       </c>
       <c r="H16">
-        <v>0.1776406354823621</v>
+        <v>0.1756675680253181</v>
       </c>
       <c r="I16">
-        <v>0.01683331233385577</v>
+        <v>0.01339323430253092</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6417272276102111</v>
+        <v>0.3287747383473203</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1575075772082393</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1090015177529295</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.02138396267344</v>
+        <v>5.000851534750211</v>
       </c>
       <c r="C17">
-        <v>1.961106340731703</v>
+        <v>2.084180575104085</v>
       </c>
       <c r="D17">
-        <v>0.0237024366398062</v>
+        <v>0.03071973499545777</v>
       </c>
       <c r="E17">
-        <v>0.254898835528266</v>
+        <v>0.2468882268500252</v>
       </c>
       <c r="F17">
-        <v>1.877013910847239</v>
+        <v>1.310393850718228</v>
       </c>
       <c r="G17">
-        <v>0.0007770883573739777</v>
+        <v>0.007452659153517338</v>
       </c>
       <c r="H17">
-        <v>0.1385022891191738</v>
+        <v>0.1369468168063861</v>
       </c>
       <c r="I17">
-        <v>0.01496243962632171</v>
+        <v>0.01241311048516547</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7138608621688434</v>
+        <v>0.396790651340261</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1847308332984561</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1318263048400148</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.903495976681654</v>
+        <v>4.883644232271536</v>
       </c>
       <c r="C18">
-        <v>1.996751863713996</v>
+        <v>2.158868815938661</v>
       </c>
       <c r="D18">
-        <v>0.02753666004765876</v>
+        <v>0.02555711101315161</v>
       </c>
       <c r="E18">
-        <v>0.4900445555368549</v>
+        <v>0.4807838986609951</v>
       </c>
       <c r="F18">
-        <v>2.193112337206202</v>
+        <v>1.545209158332383</v>
       </c>
       <c r="G18">
-        <v>0.0007772480653198808</v>
+        <v>0.006224811814709241</v>
       </c>
       <c r="H18">
-        <v>0.08648218084603343</v>
+        <v>0.08491272222906332</v>
       </c>
       <c r="I18">
-        <v>0.01460164924290908</v>
+        <v>0.012095425022558</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8981226967754239</v>
+        <v>0.5093898080910506</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2275260482366619</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1732680924097281</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.873489553329989</v>
+        <v>4.850148307122083</v>
       </c>
       <c r="C19">
-        <v>2.100129084796947</v>
+        <v>2.30051225165505</v>
       </c>
       <c r="D19">
-        <v>0.03902332336081216</v>
+        <v>0.02452916054974619</v>
       </c>
       <c r="E19">
-        <v>0.9303077003492461</v>
+        <v>0.9169896669280746</v>
       </c>
       <c r="F19">
-        <v>2.668022281369872</v>
+        <v>1.859784243516444</v>
       </c>
       <c r="G19">
-        <v>0.000775715490022388</v>
+        <v>0.006930256614985808</v>
       </c>
       <c r="H19">
-        <v>0.04466173820866715</v>
+        <v>0.04265701650101761</v>
       </c>
       <c r="I19">
-        <v>0.01609986119825457</v>
+        <v>0.01304280360090182</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.171762365557043</v>
+        <v>0.6592489854240711</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2829680467555562</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2306652824875997</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.094249275750599</v>
+        <v>5.053813260706534</v>
       </c>
       <c r="C20">
-        <v>2.382724670672474</v>
+        <v>2.619513873688675</v>
       </c>
       <c r="D20">
-        <v>0.07178732609251171</v>
+        <v>0.0305430705403662</v>
       </c>
       <c r="E20">
-        <v>1.932414340326659</v>
+        <v>1.902974417016452</v>
       </c>
       <c r="F20">
-        <v>3.622774203199043</v>
+        <v>2.404601534311936</v>
       </c>
       <c r="G20">
-        <v>0.0007693825328735157</v>
+        <v>0.01283357084444425</v>
       </c>
       <c r="H20">
-        <v>0.03058365330261026</v>
+        <v>0.0265178295790407</v>
       </c>
       <c r="I20">
-        <v>0.02282275949194013</v>
+        <v>0.01681817383213513</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.717073477117083</v>
+        <v>0.9108854571237828</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3700969178933917</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3346646947680014</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.761256654827548</v>
+        <v>5.684768311049311</v>
       </c>
       <c r="C21">
-        <v>2.72224130425036</v>
+        <v>2.791493696356099</v>
       </c>
       <c r="D21">
-        <v>0.08084586916082515</v>
+        <v>0.02514150324604025</v>
       </c>
       <c r="E21">
-        <v>2.292440000686639</v>
+        <v>2.237492625585162</v>
       </c>
       <c r="F21">
-        <v>4.151061603552733</v>
+        <v>2.283146842639383</v>
       </c>
       <c r="G21">
-        <v>0.000760492431639781</v>
+        <v>0.07828351904540654</v>
       </c>
       <c r="H21">
-        <v>0.04265401580482653</v>
+        <v>0.0347090460457018</v>
       </c>
       <c r="I21">
-        <v>0.03463442640716252</v>
+        <v>0.02209396397440866</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.954143252651221</v>
+        <v>0.7919991270022493</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3130723095708845</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3066386998945916</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.200585182730265</v>
+        <v>6.097439353947948</v>
       </c>
       <c r="C22">
-        <v>2.934170169082279</v>
+        <v>2.876774747627223</v>
       </c>
       <c r="D22">
-        <v>0.08579340939690638</v>
+        <v>0.02377750634591091</v>
       </c>
       <c r="E22">
-        <v>2.478296005398747</v>
+        <v>2.405351057063314</v>
       </c>
       <c r="F22">
-        <v>4.479151667646846</v>
+        <v>2.173732439292948</v>
       </c>
       <c r="G22">
-        <v>0.0007548882563170228</v>
+        <v>0.1710001130716208</v>
       </c>
       <c r="H22">
-        <v>0.05093761502926064</v>
+        <v>0.04009551863234595</v>
       </c>
       <c r="I22">
-        <v>0.04325802242713728</v>
+        <v>0.02552792928928316</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.099569608082092</v>
+        <v>0.7053481461597073</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2743806340399217</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2834631448510905</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.966107317064314</v>
+        <v>5.878273349903168</v>
       </c>
       <c r="C23">
-        <v>2.81620410336194</v>
+        <v>2.849090532033586</v>
       </c>
       <c r="D23">
-        <v>0.0840676580755968</v>
+        <v>0.02464478106254897</v>
       </c>
       <c r="E23">
-        <v>2.379005839411093</v>
+        <v>2.316410500642135</v>
       </c>
       <c r="F23">
-        <v>4.322326162653383</v>
+        <v>2.288809254601574</v>
       </c>
       <c r="G23">
-        <v>0.0007578332039006525</v>
+        <v>0.1035077581407009</v>
       </c>
       <c r="H23">
-        <v>0.04646827253027475</v>
+        <v>0.03729430240175002</v>
       </c>
       <c r="I23">
-        <v>0.03836830353514387</v>
+        <v>0.02353091696053511</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.035281494216193</v>
+        <v>0.7797135508859938</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3045904432980322</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3074123673205591</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.086252541684644</v>
+        <v>5.0451758883097</v>
       </c>
       <c r="C24">
-        <v>2.385190973207841</v>
+        <v>2.628001522268448</v>
       </c>
       <c r="D24">
-        <v>0.07607173548225177</v>
+        <v>0.03188887755621828</v>
       </c>
       <c r="E24">
-        <v>2.009698802922472</v>
+        <v>1.979264061879604</v>
       </c>
       <c r="F24">
-        <v>3.709814063746023</v>
+        <v>2.463630253499787</v>
       </c>
       <c r="G24">
-        <v>0.0007691409968777736</v>
+        <v>0.01286857922356432</v>
       </c>
       <c r="H24">
-        <v>0.03125128819192113</v>
+        <v>0.02707564217516767</v>
       </c>
       <c r="I24">
-        <v>0.022710486352155</v>
+        <v>0.01647191581580199</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.774673229529995</v>
+        <v>0.944085636546717</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3823498295831556</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3473947455909183</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.151741978983523</v>
+        <v>4.139370089116653</v>
       </c>
       <c r="C25">
-        <v>1.934471796143555</v>
+        <v>2.152964146017553</v>
       </c>
       <c r="D25">
-        <v>0.06750693230511473</v>
+        <v>0.03116683240737572</v>
       </c>
       <c r="E25">
-        <v>1.623411827877192</v>
+        <v>1.613200970337829</v>
       </c>
       <c r="F25">
-        <v>3.070355778343441</v>
+        <v>2.112149237450495</v>
       </c>
       <c r="G25">
-        <v>0.0007815844475155977</v>
+        <v>0.003721211175846229</v>
       </c>
       <c r="H25">
-        <v>0.017983019595881</v>
+        <v>0.01672623222638459</v>
       </c>
       <c r="I25">
-        <v>0.01049241625062614</v>
+        <v>0.009072760587840456</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.502399974539188</v>
+        <v>0.8514585274171438</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3711774779906989</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2843964088282149</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
